--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13440" windowHeight="5490"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>test step</t>
   </si>
@@ -76,9 +75,6 @@
     <t>opensourcecms</t>
   </si>
   <si>
-    <t>https://s1.demo.opensourcecms.com/s/44</t>
-  </si>
-  <si>
     <t>Open Browser</t>
   </si>
   <si>
@@ -88,10 +84,19 @@
     <t>Enter username</t>
   </si>
   <si>
-    <t>Enter password</t>
-  </si>
-  <si>
     <t>Click Login button</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>class=gLFyf gsfi</t>
+  </si>
+  <si>
+    <t>Automation Telusko</t>
+  </si>
+  <si>
+    <t>class=gNO89b</t>
   </si>
 </sst>
 </file>
@@ -128,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,6 +156,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -159,11 +175,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,11 +476,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -489,7 +504,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -503,7 +518,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -512,47 +527,39 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
@@ -639,13 +646,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>test step</t>
   </si>
   <si>
-    <t>locator</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -90,13 +87,22 @@
     <t>https://www.google.com</t>
   </si>
   <si>
-    <t>class=gLFyf gsfi</t>
-  </si>
-  <si>
     <t>Automation Telusko</t>
   </si>
   <si>
-    <t>class=gNO89b</t>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>gLFyf gsfi</t>
+  </si>
+  <si>
+    <t>gNO89b</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -476,179 +482,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -666,72 +706,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -580,111 +580,6 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3900"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>test step</t>
   </si>
@@ -96,13 +97,35 @@
     <t>locatorType</t>
   </si>
   <si>
-    <t>gLFyf gsfi</t>
-  </si>
-  <si>
-    <t>gNO89b</t>
-  </si>
-  <si>
-    <t>class</t>
+    <t>/html/body/div[1]/div[2]/form/div[2]/div[1]/div[1]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/html/body/div[1]/div[2]/form/div[2]/div[1]/div[3]/center/input[1]
+</t>
+  </si>
+  <si>
+    <t>Before suite</t>
+  </si>
+  <si>
+    <t>Befor eclass</t>
+  </si>
+  <si>
+    <t>Before method</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>After method</t>
+  </si>
+  <si>
+    <t>after class</t>
+  </si>
+  <si>
+    <t>after suite</t>
   </si>
 </sst>
 </file>
@@ -181,12 +204,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -552,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -564,21 +590,56 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -586,6 +647,7 @@
     <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3900"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="4575"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="scenarios" sheetId="2" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G7"/>
+  <oleSize ref="A1:N13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>test step</t>
   </si>
@@ -40,37 +40,10 @@
     <t>enter url</t>
   </si>
   <si>
-    <t>enter email address</t>
-  </si>
-  <si>
-    <t>id=txtUsername</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
-    <t>id=txtPassword</t>
-  </si>
-  <si>
-    <t>enter password</t>
-  </si>
-  <si>
-    <t>id=btnLogin</t>
-  </si>
-  <si>
-    <t>click on login button</t>
-  </si>
-  <si>
     <t>click</t>
-  </si>
-  <si>
-    <t>close browser</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>opensourcecms</t>
   </si>
   <si>
     <t>Open Browser</t>
@@ -107,25 +80,49 @@
 </t>
   </si>
   <si>
-    <t>Before suite</t>
-  </si>
-  <si>
-    <t>Befor eclass</t>
-  </si>
-  <si>
-    <t>Before method</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>After method</t>
-  </si>
-  <si>
-    <t>after class</t>
-  </si>
-  <si>
-    <t>after suite</t>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Rowstart</t>
+  </si>
+  <si>
+    <t>RowEnd</t>
+  </si>
+  <si>
+    <t>TCNo</t>
+  </si>
+  <si>
+    <t>TCName</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Check URL</t>
+  </si>
+  <si>
+    <t>Check search</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -162,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,17 +182,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -204,15 +190,17 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,231 +496,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3105"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -190,7 +190,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -201,6 +201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,13 +502,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
@@ -517,7 +521,7 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -537,7 +541,7 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -557,7 +561,7 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -573,7 +577,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -581,7 +585,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3105"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="15540" windowHeight="2565"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:N7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>test step</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Check search</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>2</t>
@@ -190,7 +187,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -201,9 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,16 +500,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -524,14 +522,14 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -542,52 +540,52 @@
         <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="15540" windowHeight="2565"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3270"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N7"/>
+  <oleSize ref="A1:N9"/>
 </workbook>
 </file>
 
@@ -500,7 +500,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="3270"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N9"/>
+  <oleSize ref="A1:F5"/>
 </workbook>
 </file>
 
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,6 +590,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -597,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,7 +608,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2295" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2265"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:F5"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>test step</t>
   </si>
@@ -110,16 +110,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>TestData</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -187,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -202,6 +196,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,8 +505,8 @@
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="14.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -522,14 +519,14 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -542,14 +539,14 @@
       <c r="C2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -562,30 +559,30 @@
       <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
@@ -598,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2265"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
-    <sheet name="login" sheetId="1" r:id="rId2"/>
+    <sheet name="tcsteps" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>test step</t>
   </si>
@@ -110,10 +110,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>TestData</t>
-  </si>
-  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>TestDatacolumn</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -193,12 +193,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,16 +504,17 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="14.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="14.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -519,14 +527,14 @@
       <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -536,17 +544,17 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="13">
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -556,33 +564,33 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
@@ -596,7 +604,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -181,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -206,6 +206,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,7 +505,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,7 +545,7 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="14">

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>test step</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>TestDatacolumn</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,8 +548,8 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
-        <v>1</v>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -565,8 +568,8 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11">
-        <v>1</v>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="15">
         <v>3</v>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -184,7 +184,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -209,7 +209,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,7 +507,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,7 +547,7 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="14">

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>test step</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>TestDatacolumn</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -184,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -209,6 +206,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,7 +505,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,8 +545,8 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
+      <c r="C2" s="16">
+        <v>1</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -567,8 +565,8 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>32</v>
+      <c r="C3" s="16">
+        <v>1</v>
       </c>
       <c r="D3" s="15">
         <v>3</v>
@@ -584,7 +582,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>test step</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>TestDatacolumn</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,8 +548,8 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16">
-        <v>1</v>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -565,8 +568,8 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16">
-        <v>1</v>
+      <c r="C3" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="15">
         <v>3</v>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,7 +548,7 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="14">
@@ -568,7 +568,7 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="15">

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15540" windowHeight="2850"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>test step</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>TestDatacolumn</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -184,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -195,21 +192,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,14 +499,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
     <col min="4" max="4" width="14.140625" style="12" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
@@ -528,13 +519,13 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -548,13 +539,13 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
         <v>2</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -568,13 +559,13 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="8">
         <v>4</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -585,16 +576,16 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2850"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:M8"/>
+  <oleSize ref="A1:J7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>test step</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>TestDatacolumn</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Verify output</t>
+  </si>
+  <si>
+    <t>SIvCob</t>
+  </si>
+  <si>
+    <t>verifyOutputValue</t>
+  </si>
+  <si>
+    <t>Google offered in:</t>
   </si>
 </sst>
 </file>
@@ -181,7 +199,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -201,6 +219,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -498,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
@@ -563,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>30</v>
@@ -596,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -609,9 +633,10 @@
     <col min="3" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -630,8 +655,11 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -650,8 +678,9 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -668,44 +697,66 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="75">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -131,7 +131,7 @@
     <t>verifyOutputValue</t>
   </si>
   <si>
-    <t>Google offered in:</t>
+    <t xml:space="preserve">Google offered in:  </t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -131,7 +131,7 @@
     <t>verifyOutputValue</t>
   </si>
   <si>
-    <t xml:space="preserve">Google offered in:  </t>
+    <t>Google offered in: हिन्दी বাংলা తెలుగు मराठी தமிழ் ગુજરાતી ಕನ್ನಡ മലയാളം ਪੰਜਾਬੀ</t>
   </si>
 </sst>
 </file>
@@ -203,11 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +221,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -530,9 +534,9 @@
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="14.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="14.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="10" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -543,13 +547,13 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -557,59 +561,59 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
     </row>
   </sheetData>
@@ -623,7 +627,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,8 +636,8 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="6" max="6" width="26.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -652,10 +656,10 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -675,10 +679,10 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
@@ -694,12 +698,12 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="60">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>34</v>
@@ -713,10 +717,10 @@
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -734,10 +738,10 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="75">
       <c r="A6" s="2"/>
@@ -747,16 +751,16 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3345"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J7"/>
+  <oleSize ref="A1:P11"/>
 </workbook>
 </file>
 
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P11"/>
+  <oleSize ref="A1:J11"/>
 </workbook>
 </file>
 
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J11"/>
+  <oleSize ref="A1:P15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>test step</t>
   </si>
@@ -110,9 +110,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>TestDatacolumn</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Google offered in: हिन्दी বাংলা తెలుగు मराठी தமிழ் ગુજરાતી ಕನ್ನಡ മലയാളം ਪੰਜਾਬੀ</t>
+  </si>
+  <si>
+    <t>tcstepno</t>
   </si>
 </sst>
 </file>
@@ -199,7 +199,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -207,7 +207,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -228,6 +227,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -526,18 +540,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="14.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="14.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -547,17 +561,17 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
+      <c r="F1" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -567,17 +581,17 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
+      <c r="F2" s="17">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -587,34 +601,34 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
+      <c r="F3" s="18">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -624,147 +638,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="12"/>
+    <col min="2" max="2" width="18.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="60">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
+      <c r="B4" s="15">
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="75">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="75">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="4425"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="15720" windowHeight="3375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P15"/>
+  <oleSize ref="A1:I6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>test step</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>tcstepno</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -540,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,8 +593,8 @@
       <c r="E2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="17">
-        <v>6</v>
+      <c r="F2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -610,8 +613,8 @@
       <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="18">
-        <v>6</v>
+      <c r="F3" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -640,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="15720" windowHeight="3375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -202,7 +202,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -244,6 +244,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -644,13 +653,13 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="21" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
@@ -662,7 +671,7 @@
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -688,7 +697,7 @@
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -710,7 +719,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2"/>
-      <c r="B3" s="15">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -732,7 +741,7 @@
     </row>
     <row r="4" spans="1:8" ht="60">
       <c r="A4" s="2"/>
-      <c r="B4" s="15">
+      <c r="B4" s="20">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -756,7 +765,7 @@
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -778,7 +787,7 @@
     </row>
     <row r="6" spans="1:8" ht="75">
       <c r="A6" s="2"/>
-      <c r="B6" s="15">
+      <c r="B6" s="20">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I6"/>
+  <oleSize ref="A1:I12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>test step</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>Google offered in:</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +670,7 @@
     <col min="8" max="8" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -693,7 +696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -717,7 +720,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="20">
         <v>2</v>
@@ -739,7 +742,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="60">
+    <row r="4" spans="1:9" ht="57" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="20">
         <v>3</v>
@@ -757,11 +760,14 @@
         <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -785,7 +791,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="75">
+    <row r="6" spans="1:9" ht="75">
       <c r="A6" s="2"/>
       <c r="B6" s="20">
         <v>2</v>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="5280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:I12"/>
+  <oleSize ref="A1:P9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>test step</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Enter username</t>
-  </si>
-  <si>
-    <t>Click Login button</t>
   </si>
   <si>
     <t>https://www.google.com</t>
@@ -138,6 +135,15 @@
   </si>
   <si>
     <t>Google offered in:</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>gsr</t>
+  </si>
+  <si>
+    <t>verifyOutputElementPresent</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,6 +203,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -205,7 +224,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -231,32 +250,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -555,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -566,67 +589,67 @@
     <col min="3" max="3" width="9.140625" style="9"/>
     <col min="4" max="4" width="14.140625" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>30</v>
+      <c r="F1" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -635,7 +658,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2"/>
@@ -643,7 +666,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -653,16 +676,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
@@ -672,19 +695,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -693,14 +716,15 @@
         <v>2</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="20">
+        <v>26</v>
+      </c>
+      <c r="B2" s="19">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -719,10 +743,11 @@
         <v>5</v>
       </c>
       <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
-      <c r="B3" s="20">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -738,72 +763,74 @@
         <v>6</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="57" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="A5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>14</v>
+      <c r="G5" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="3"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="2"/>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>8</v>
@@ -812,6 +839,30 @@
         <v>4</v>
       </c>
       <c r="H6" s="3"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="19">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P9"/>
+  <oleSize ref="A7:I13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>test step</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>verifyOutputElementPresent</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Click Terms link</t>
+  </si>
+  <si>
+    <t>What’s covered in these terms</t>
+  </si>
+  <si>
+    <t>Sw0jjd</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -235,7 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -253,9 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -281,6 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -576,20 +591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="14.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="14.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -599,16 +614,16 @@
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -623,12 +638,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>4</v>
-      </c>
-      <c r="F2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -643,30 +658,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>7</v>
-      </c>
-      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,28 +675,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="18" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="7" max="7" width="26.28515625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -712,10 +711,10 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="2"/>
@@ -724,7 +723,7 @@
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -747,7 +746,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -762,7 +761,7 @@
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="3"/>
@@ -770,7 +769,7 @@
     </row>
     <row r="4" spans="1:9" ht="57" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -794,25 +793,25 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="3"/>
@@ -820,7 +819,7 @@
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="2"/>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -843,7 +842,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -863,6 +862,52 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="17">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="2"/>
+      <c r="B9" s="17">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -877,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
+++ b/AutoKeywordFramework/target/classes/com/qa/at/keyword/scenarios/scenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="2595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15720" windowHeight="3270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>test step</t>
   </si>
@@ -155,13 +155,13 @@
     <t>What’s covered in these terms</t>
   </si>
   <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
     <t>Sw0jjd</t>
-  </si>
-  <si>
-    <t>linkText</t>
-  </si>
-  <si>
-    <t>Terms</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -872,10 +872,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
@@ -886,7 +886,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="60">
       <c r="A9" s="2"/>
       <c r="B9" s="17">
         <v>5</v>
@@ -898,7 +898,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>34</v>
@@ -907,7 +907,9 @@
         <v>44</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
